--- a/Input_Files/ice_on_dates_20250414.xlsx
+++ b/Input_Files/ice_on_dates_20250414.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gagers/Documents/Thesis and Lab/Ice Phenology Project/Ice_Pheno/Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47956C64-85EA-AB45-9FE8-181414221DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A087BE-BB60-7042-99E0-029693E07B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{2030D7F7-1607-1B48-96B6-4E322D6653BA}"/>
+    <workbookView xWindow="15300" yWindow="4520" windowWidth="14100" windowHeight="13580" xr2:uid="{2030D7F7-1607-1B48-96B6-4E322D6653BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C9C687-AD29-4441-A732-C2BF8DB8A695}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,6 +553,39 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>45601</v>
+      </c>
+      <c r="B13">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>45979</v>
+      </c>
+      <c r="B14">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>2026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
